--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
@@ -90,6 +90,30 @@
   </x:si>
   <x:si>
     <x:t>FORMULACION PRESUPUESTAL - 2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Materiales y suministros</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FILLER DE 0.0040 A 0.009 25 HOJAS X 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400716</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>FILLER DE 0.050 A 1.000  20 HOJAS X 12 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Servicios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANTENIMIENTO DE EXTINTORES</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -656,6 +680,175 @@
       </x:c>
       <x:c r="R10" s="7"/>
     </x:row>
+    <x:row r="11">
+      <x:c r="B11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="B12" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C12" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E12" t="n">
+        <x:v>58.98</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="N12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="O12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="P12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="B13" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C13" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E13" t="n">
+        <x:v>81.42</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="N13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="P13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="B14" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="B15" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="N15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="O15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="P15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="13">
     <x:mergeCell ref="R9:R10"/>

--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
@@ -86,16 +86,91 @@
     <x:t>SET</x:t>
   </x:si>
   <x:si>
-    <x:t>Presupuesto 2017 - I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FORMULACION PRESUPUESTAL - 2017</x:t>
+    <x:t>Presup 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FORMULACION PRESUPUESTAL - 2019</x:t>
   </x:si>
   <x:si>
     <x:t>Materiales y suministros</x:t>
   </x:si>
   <x:si>
-    <x:t>FILLER DE 0.0040 A 0.009 25 HOJAS X 4</x:t>
+    <x:t>I.- PROGRAMA DE INVERSIONES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.- GASTOS DE CAPITAL NO LIGADOS A PROYECTOS DE INVERSIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3.- PROGRAMA DE ADECUACIÓN MEDIO AMBIENTAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3.3.- SERVICIOS GESTIÓN INTEGRADA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3.2.- Implementación</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3.1.- Gasto Operativo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.- REPOSICIÓN DE ACTIVOS DE PRODUCCIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.5.- OTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.4.- EQUIPAMIENTO DE TALLERES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.3.- INFRAESTRUCTURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.2.- EQUIPOS DE CONTROL DE CALIDAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.1.- MÁQUINAS, EQUIPOS Y HERRAMIENTAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.- ACTIVOS FIJOS ADMINISTRATIVOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.5.- REPOSICIÓN EQUIPOS DE TRANSPORTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.4.- INFRAESTRUCTURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.- EQUIPOS DE OFICINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.3.- OTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.2.- REPOSICIÓN MOBILIARIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.1.- ADQUISICIÓN EQUIPOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.- EQUIPOS DE INFORMÁTICA Y COMUNICACIONES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.3.- EQUIPO DE COMUNICACIONES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.- SOFTWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.4.- OTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.3.- OFIMÁTICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.2.- DISEÑO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PINTURA CARICA MICROCELULAR 001 </x:t>
   </x:si>
   <x:si>
     <x:t>400716</x:t>
@@ -104,16 +179,40 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>FILLER DE 0.050 A 1.000  20 HOJAS X 12 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
+    <x:t>1.2.1.2.2.1.- DESARROLLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAPTOP INTEL CORE TM 13-350M,2.26 GHZ,(DELL STUDIO 1558 I3)PANTALLA LED 15.6",DISCO 320 GB, Y 3 GB RAM  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.1.- HARDWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.- CENTRO DE COMPUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.5.- OTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.4.- CAPACITACIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.3.- SEGURIDAD DE LA INFORMACIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.2.- SOFTWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.1.- HARDWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.- PROYECTOS DE INVERSION PUBLICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1.- EQUIPAMIENTO E IMPLEMENTACION </x:t>
   </x:si>
   <x:si>
     <x:t>Servicios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANTENIMIENTO DE EXTINTORES</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -689,164 +788,286 @@
       <x:c r="B12" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C12" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D12" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E12" t="n">
-        <x:v>58.98</x:v>
-      </x:c>
-      <x:c r="F12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="J12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="K12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="L12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="M12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="N12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="O12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="P12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="Q12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="R12" t="s">
-        <x:v>28</x:v>
-      </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="B13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C13" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="E13" t="n">
-        <x:v>81.42</x:v>
-      </x:c>
-      <x:c r="F13" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G13" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="J13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="K13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="L13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="M13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="N13" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="P13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="Q13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="R13" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="B14" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="B15" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="B16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="B17" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="B18" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C15" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E15" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="J15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="K15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="L15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="M15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="N15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="O15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="P15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="Q15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="R15" t="s">
-        <x:v>28</x:v>
+    </x:row>
+    <x:row r="19">
+      <x:c r="B19" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="B20" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="B21" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="B22" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="B23" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="B24" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="B25" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="B26" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="B27" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="B28" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="B29" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="B30" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="B31" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="B32" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="B33" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="B34" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="B35" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="B36" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="B37" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C37" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D37" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E37" t="n">
+        <x:v>17.85</x:v>
+      </x:c>
+      <x:c r="F37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="R37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="B38" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="B39" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C39" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D39" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E39" t="n">
+        <x:v>4071</x:v>
+      </x:c>
+      <x:c r="F39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="R39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="B40" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="B41" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="B42" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="B43" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="B44" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="B45" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="B46" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="B47" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="B48" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="B49" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
@@ -29,9 +29,6 @@
     <x:t>PRESUPUESTO  DE  INVERSIONES 2017 -    FORMULACION 2017</x:t>
   </x:si>
   <x:si>
-    <x:t>(En Nuevos Soles)</x:t>
-  </x:si>
-  <x:si>
     <x:t>C.C.</x:t>
   </x:si>
   <x:si>
@@ -86,6 +83,9 @@
     <x:t>SET</x:t>
   </x:si>
   <x:si>
+    <x:t>(En Soles)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Presup 7</x:t>
   </x:si>
   <x:si>
@@ -95,124 +95,169 @@
     <x:t>Materiales y suministros</x:t>
   </x:si>
   <x:si>
-    <x:t>I.- PROGRAMA DE INVERSIONES</x:t>
+    <x:t>1.- PROGRAMA DE INVERSIONES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.- PROYECTOS DE INVERSION PUBLICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1.- EQUIPAMIENTO E IMPLEMENTACION </x:t>
+  </x:si>
+  <x:si>
+    <x:t>VALVULA COMPUERTA BRONCE 1.1/4 X 125 LBS P/R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400715</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>reemplazo al boien de codigo 123</x:t>
   </x:si>
   <x:si>
     <x:t>1.2.- GASTOS DE CAPITAL NO LIGADOS A PROYECTOS DE INVERSIÓN</x:t>
   </x:si>
   <x:si>
+    <x:t>1.2.1.- ACTIVOS FIJOS ADMINISTRATIVOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.- CENTRO DE COMPUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.1.- HARDWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.2.- SOFTWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.2.- desarrollo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.3.- SEGURIDAD DE LA INFORMACIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.4.- CAPACITACIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.5.- OTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.- EQUIPOS DE INFORMÁTICA Y COMUNICACIONES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.1.- HARDWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.- SOFTWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.1.- DESARROLLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOFTWARE SWREUSER V.2.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reeamplazo adquisicion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.2.- DISEÑO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.3.- OFIMÁTICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.4.- OTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.3.- EQUIPO DE COMUNICACIONES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.- EQUIPOS DE OFICINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.1.- ADQUISICIÓN EQUIPOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VENTILADOR DE PEDESTAL OSCILANTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.2.- REPOSICIÓN MOBILIARIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESCRITORIO EN MELAMINE EN L DE 1.50 X 1.50 MT GRAFITO C/NEGRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reemplazo de los escritorios 1028-201-05,1106-201-05,1109-201-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.3.- OTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARRETILLA HIDRAULICA DE 2 TN CAPACIDAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.4.- INFRAESTRUCTURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.5.- REPOSICIÓN EQUIPOS DE TRANSPORTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.- REPOSICIÓN DE ACTIVOS DE PRODUCCIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.1.- MÁQUINAS, EQUIPOS Y HERRAMIENTAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.2.- EQUIPOS DE CONTROL DE CALIDAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.3.- INFRAESTRUCTURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.4.- EQUIPAMIENTO DE TALLERES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.5.- OTROS</x:t>
+  </x:si>
+  <x:si>
     <x:t>1.2.3.- PROGRAMA DE ADECUACIÓN MEDIO AMBIENTAL</x:t>
   </x:si>
   <x:si>
+    <x:t>1.2.3.1.- Gasto Operativo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3.2.- Implementación</x:t>
+  </x:si>
+  <x:si>
     <x:t>1.2.3.3.- SERVICIOS GESTIÓN INTEGRADA</x:t>
   </x:si>
   <x:si>
-    <x:t>1.2.3.2.- Implementación</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3.1.- Gasto Operativo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.- REPOSICIÓN DE ACTIVOS DE PRODUCCIÓN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.5.- OTROS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.4.- EQUIPAMIENTO DE TALLERES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.3.- INFRAESTRUCTURA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.2.- EQUIPOS DE CONTROL DE CALIDAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.1.- MÁQUINAS, EQUIPOS Y HERRAMIENTAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.- ACTIVOS FIJOS ADMINISTRATIVOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.5.- REPOSICIÓN EQUIPOS DE TRANSPORTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.4.- INFRAESTRUCTURA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.3.- EQUIPOS DE OFICINA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.3.3.- OTROS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.3.2.- REPOSICIÓN MOBILIARIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.3.1.- ADQUISICIÓN EQUIPOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.- EQUIPOS DE INFORMÁTICA Y COMUNICACIONES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.3.- EQUIPO DE COMUNICACIONES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.- SOFTWARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.4.- OTROS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.3.- OFIMÁTICA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.2.- DISEÑO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PINTURA CARICA MICROCELULAR 001 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>400716</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.1.- DESARROLLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAPTOP INTEL CORE TM 13-350M,2.26 GHZ,(DELL STUDIO 1558 I3)PANTALLA LED 15.6",DISCO 320 GB, Y 3 GB RAM  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.1.- HARDWARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.- CENTRO DE COMPUTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.5.- OTROS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.4.- CAPACITACIÓN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.3.- SEGURIDAD DE LA INFORMACIÓN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.2.- SOFTWARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.1.- HARDWARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.- PROYECTOS DE INVERSION PUBLICA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.1.- EQUIPAMIENTO E IMPLEMENTACION </x:t>
+    <x:t>Total Materiales</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4160.45</x:t>
   </x:si>
   <x:si>
     <x:t>Servicios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANIOBRA DE DESMONT. MOTOR PRINCP SALA MAQUNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Servicios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -282,16 +327,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -299,9 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,8 +651,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="B2:R10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D15" sqref="D15"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <x:selection activeCell="F11" sqref="F11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,41 +665,41 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="2"/>
-      <x:c r="D2" s="2"/>
-      <x:c r="E2" s="2"/>
-      <x:c r="F2" s="2"/>
+      <x:c r="C2" s="4"/>
+      <x:c r="D2" s="4"/>
+      <x:c r="E2" s="4"/>
+      <x:c r="F2" s="4"/>
     </x:row>
     <x:row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3 " t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C3" s="2"/>
-      <x:c r="D3" s="2"/>
-      <x:c r="E3" s="2"/>
-      <x:c r="F3" s="2"/>
+      <x:c r="C3" s="4"/>
+      <x:c r="D3" s="4"/>
+      <x:c r="E3" s="4"/>
+      <x:c r="F3" s="4"/>
     </x:row>
     <x:row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C4" s="2"/>
-      <x:c r="D4" s="2"/>
-      <x:c r="E4" s="2"/>
-      <x:c r="F4" s="2"/>
+      <x:c r="C4" s="4"/>
+      <x:c r="D4" s="4"/>
+      <x:c r="E4" s="4"/>
+      <x:c r="F4" s="4"/>
     </x:row>
     <x:row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <x:c r="B5" s="1"/>
-      <x:c r="C5" s="1"/>
-      <x:c r="D5" s="1"/>
-      <x:c r="E5" s="1"/>
-      <x:c r="F5" s="1"/>
+      <x:c r="B5" s="5"/>
+      <x:c r="C5" s="5"/>
+      <x:c r="D5" s="5"/>
+      <x:c r="E5" s="5"/>
+      <x:c r="F5" s="5"/>
     </x:row>
     <x:row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <x:c r="B6" s="3" t="s">
@@ -679,7 +724,7 @@
     </x:row>
     <x:row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <x:c r="B7" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C7" s="3"/>
       <x:c r="D7" s="3"/>
@@ -699,85 +744,85 @@
       <x:c r="R7" s="3"/>
     </x:row>
     <x:row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <x:c r="B8" s="5"/>
-      <x:c r="C8" s="5"/>
-      <x:c r="D8" s="5"/>
-      <x:c r="E8" s="5"/>
-      <x:c r="F8" s="6"/>
+      <x:c r="B8" s="6"/>
+      <x:c r="C8" s="6"/>
+      <x:c r="D8" s="6"/>
+      <x:c r="E8" s="6"/>
+      <x:c r="F8" s="7"/>
     </x:row>
     <x:row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <x:c r="B9" s="7" t="s">
+      <x:c r="B9" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C9" s="7" t="s">
+      <x:c r="D9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D9" s="7" t="s">
+      <x:c r="F9" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="2"/>
+      <x:c r="H9" s="2"/>
+      <x:c r="I9" s="2"/>
+      <x:c r="J9" s="2"/>
+      <x:c r="K9" s="2"/>
+      <x:c r="L9" s="2"/>
+      <x:c r="M9" s="2"/>
+      <x:c r="N9" s="2"/>
+      <x:c r="O9" s="2"/>
+      <x:c r="P9" s="2"/>
+      <x:c r="Q9" s="2"/>
+      <x:c r="R9" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E9" s="7" t="s">
+    </x:row>
+    <x:row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <x:c r="B10" s="2"/>
+      <x:c r="C10" s="2"/>
+      <x:c r="D10" s="2"/>
+      <x:c r="E10" s="2"/>
+      <x:c r="F10" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F9" s="7" t="s">
+      <x:c r="G10" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J10" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K10" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="L10" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="M10" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N10" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="G9" s="7"/>
-      <x:c r="H9" s="7"/>
-      <x:c r="I9" s="7"/>
-      <x:c r="J9" s="7"/>
-      <x:c r="K9" s="7"/>
-      <x:c r="L9" s="7"/>
-      <x:c r="M9" s="7"/>
-      <x:c r="N9" s="7"/>
-      <x:c r="O9" s="7"/>
-      <x:c r="P9" s="7"/>
-      <x:c r="Q9" s="7"/>
-      <x:c r="R9" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <x:c r="B10" s="7"/>
-      <x:c r="C10" s="7"/>
-      <x:c r="D10" s="7"/>
-      <x:c r="E10" s="7"/>
-      <x:c r="F10" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G10" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H10" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I10" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J10" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="K10" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="L10" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="M10" s="4" t="s">
+      <x:c r="O10" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="N10" s="4" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="O10" s="4" t="s">
+      <x:c r="P10" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="P10" s="4" t="s">
+      <x:c r="Q10" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="Q10" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="R10" s="7"/>
+      <x:c r="R10" s="2"/>
     </x:row>
     <x:row r="11">
       <x:c r="B11" t="s">
@@ -803,271 +848,515 @@
       <x:c r="B15" t="s">
         <x:v>29</x:v>
       </x:c>
+      <x:c r="C15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Q15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R15" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="B16" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="B17" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="B18" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="B19" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="B20" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="B21" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="B22" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="B23" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="B24" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="B25" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="B26" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="B27" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="B28" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="B29" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="B30" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C30" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D30" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E30" t="n">
+        <x:v>826.53</x:v>
+      </x:c>
+      <x:c r="F30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J30" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="K30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Q30" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R30" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="B31" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="B32" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="B33" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="B34" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="B35" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="B36" t="s">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="B37" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C37" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D37" t="s">
-        <x:v>52</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E37" t="n">
-        <x:v>17.85</x:v>
+        <x:v>192.8</x:v>
       </x:c>
       <x:c r="F37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R37" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="B38" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="B39" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C39" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D39" t="s">
-        <x:v>52</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E39" t="n">
-        <x:v>4071</x:v>
+        <x:v>2161.02</x:v>
       </x:c>
       <x:c r="F39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q39" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R39" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="B40" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="B41" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C41" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D41" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E41" t="n">
+        <x:v>980.1</x:v>
+      </x:c>
+      <x:c r="F41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Q41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R41" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="B42" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="B43" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="B44" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="B45" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
       <x:c r="B46" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="47">
       <x:c r="B47" t="s">
-        <x:v>63</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="48">
       <x:c r="B48" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="49">
       <x:c r="B49" t="s">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="B50" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="B51" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="B52" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="B53" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="B54" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C54" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E54" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="B55" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="B56" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C56" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D56" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E56" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Q56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R56" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="B57" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C57" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E57" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>ORGANISMOS DIRECCION EJECUTIVA</x:t>
   </x:si>
@@ -29,9 +29,6 @@
     <x:t>PRESUPUESTO  DE  INVERSIONES 2017 -    FORMULACION 2017</x:t>
   </x:si>
   <x:si>
-    <x:t>C.C.</x:t>
-  </x:si>
-  <x:si>
     <x:t>SUSTENTO</x:t>
   </x:si>
   <x:si>
@@ -86,178 +83,223 @@
     <x:t>(En Soles)</x:t>
   </x:si>
   <x:si>
+    <x:t>C.C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P/U</x:t>
+  </x:si>
+  <x:si>
     <x:t>Presup 7</x:t>
   </x:si>
   <x:si>
     <x:t>FORMULACION PRESUPUESTAL - 2019</x:t>
   </x:si>
   <x:si>
-    <x:t>Materiales y suministros</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.- PROGRAMA DE INVERSIONES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.- PROYECTOS DE INVERSION PUBLICA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.1.- EQUIPAMIENTO E IMPLEMENTACION </x:t>
-  </x:si>
-  <x:si>
-    <x:t>VALVULA COMPUERTA BRONCE 1.1/4 X 125 LBS P/R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400715</x:t>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROGRAMA DE INVERSIONES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROYECTOS DE INVERSION PUBLICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EQUIPAMIENTO E IMPLEMENTACION </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GASTOS DE CAPITAL NO LIGADOS A PROYECTOS DE INVERSIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACTIVOS FIJOS ADMINISTRATIVOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CENTRO DE COMPUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARDWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0476024059 - BOCINA BRONCE SAE 62 5.1/2 X  7.1/2 X  5.1/2" X 16"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400716</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>reemplazo al boien de codigo 123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.- GASTOS DE CAPITAL NO LIGADOS A PROYECTOS DE INVERSIÓN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.- ACTIVOS FIJOS ADMINISTRATIVOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.- CENTRO DE COMPUTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.1.- HARDWARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.2.- SOFTWARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.2.- desarrollo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.3.- SEGURIDAD DE LA INFORMACIÓN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.4.- CAPACITACIÓN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.1.5.- OTROS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.- EQUIPOS DE INFORMÁTICA Y COMUNICACIONES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.1.- HARDWARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.- SOFTWARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.1.- DESARROLLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SOFTWARE SWREUSER V.2.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reeamplazo adquisicion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.2.- DISEÑO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.3.- OFIMÁTICA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.2.4.- OTROS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.2.3.- EQUIPO DE COMUNICACIONES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.3.- EQUIPOS DE OFICINA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.3.1.- ADQUISICIÓN EQUIPOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VENTILADOR DE PEDESTAL OSCILANTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.3.2.- REPOSICIÓN MOBILIARIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESCRITORIO EN MELAMINE EN L DE 1.50 X 1.50 MT GRAFITO C/NEGRO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reemplazo de los escritorios 1028-201-05,1106-201-05,1109-201-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.3.3.- OTROS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARRETILLA HIDRAULICA DE 2 TN CAPACIDAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.4.- INFRAESTRUCTURA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1.5.- REPOSICIÓN EQUIPOS DE TRANSPORTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.- REPOSICIÓN DE ACTIVOS DE PRODUCCIÓN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.1.- MÁQUINAS, EQUIPOS Y HERRAMIENTAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.2.- EQUIPOS DE CONTROL DE CALIDAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.3.- INFRAESTRUCTURA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.4.- EQUIPAMIENTO DE TALLERES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2.5.- OTROS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3.- PROGRAMA DE ADECUACIÓN MEDIO AMBIENTAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3.1.- Gasto Operativo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3.2.- Implementación</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3.3.- SERVICIOS GESTIÓN INTEGRADA</x:t>
+    <x:t>1.2.1.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOFTWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SEGURIDAD DE LA INFORMACIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAPACITACIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EQUIPOS DE INFORMÁTICA Y COMUNICACIONES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DESARROLLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DISEÑO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OFIMÁTICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.2.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.2.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EQUIPO DE COMUNICACIONES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EQUIPOS DE OFICINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADQUISICIÓN EQUIPOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REPOSICIÓN MOBILIARIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0503280508 - HOJA DE SIERRA DE  2"     X 24" X  6 DIENTES   </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.3.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INFRAESTRUCTURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REPOSICIÓN EQUIPOS DE TRANSPORTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REPOSICIÓN DE ACTIVOS DE PRODUCCIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MÁQUINAS, EQUIPOS Y HERRAMIENTAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EQUIPOS DE CONTROL DE CALIDAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EQUIPAMIENTO DE TALLERES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROGRAMA DE ADECUACIÓN MEDIO AMBIENTAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gasto Operativo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Implementación</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SERVICIOS GESTIÓN INTEGRADA</x:t>
   </x:si>
   <x:si>
     <x:t>Total Materiales</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4160.45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Servicios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANIOBRA DE DESMONT. MOTOR PRINCP SALA MAQUNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total Servicios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -289,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -321,11 +363,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,6 +415,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,22 +723,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="B2:R10"/>
+  <x:dimension ref="B2:S10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="F11" sqref="F11"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E1" sqref="E1:E1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="2" max="2" width="62.85546875" customWidth="1"/>
     <x:col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <x:col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <x:col min="4" max="5" width="10.42578125" customWidth="1"/>
     <x:col min="6" max="17" width="4.85546875" customWidth="1"/>
-    <x:col min="18" max="18" width="61.7109375" customWidth="1"/>
+    <x:col min="19" max="19" width="61.7109375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B2" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -673,19 +747,19 @@
       <x:c r="E2" s="4"/>
       <x:c r="F2" s="4"/>
     </x:row>
-    <x:row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3 " t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="4"/>
       <x:c r="E3" s="4"/>
       <x:c r="F3" s="4"/>
     </x:row>
-    <x:row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B4" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -694,16 +768,16 @@
       <x:c r="E4" s="4"/>
       <x:c r="F4" s="4"/>
     </x:row>
-    <x:row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B5" s="5"/>
       <x:c r="C5" s="5"/>
       <x:c r="D5" s="5"/>
       <x:c r="E5" s="5"/>
       <x:c r="F5" s="5"/>
     </x:row>
-    <x:row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B6" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="3"/>
       <x:c r="D6" s="3"/>
@@ -721,10 +795,11 @@
       <x:c r="P6" s="3"/>
       <x:c r="Q6" s="3"/>
       <x:c r="R6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <x:c r="S6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B7" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="3"/>
       <x:c r="D7" s="3"/>
@@ -742,29 +817,30 @@
       <x:c r="P7" s="3"/>
       <x:c r="Q7" s="3"/>
       <x:c r="R7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <x:c r="S7" s="3"/>
+    </x:row>
+    <x:row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B8" s="6"/>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
-      <x:c r="E8" s="6"/>
+      <x:c r="E8" s="7"/>
       <x:c r="F8" s="7"/>
     </x:row>
-    <x:row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="2"/>
       <x:c r="H9" s="2"/>
@@ -777,593 +853,465 @@
       <x:c r="O9" s="2"/>
       <x:c r="P9" s="2"/>
       <x:c r="Q9" s="2"/>
-      <x:c r="R9" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <x:c r="R9" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="S9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B10" s="2"/>
       <x:c r="C10" s="2"/>
       <x:c r="D10" s="2"/>
       <x:c r="E10" s="2"/>
       <x:c r="F10" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G10" s="1" t="s">
+      <x:c r="H10" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H10" s="1" t="s">
+      <x:c r="I10" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="I10" s="1" t="s">
+      <x:c r="J10" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="J10" s="1" t="s">
+      <x:c r="K10" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="K10" s="1" t="s">
+      <x:c r="L10" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="L10" s="1" t="s">
+      <x:c r="M10" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="M10" s="1" t="s">
+      <x:c r="N10" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O10" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="N10" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="O10" s="1" t="s">
+      <x:c r="P10" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="P10" s="1" t="s">
+      <x:c r="Q10" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="Q10" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="R10" s="2"/>
+      <x:c r="R10" s="9"/>
+      <x:c r="S10" s="2"/>
     </x:row>
     <x:row r="11">
+      <x:c r="A11" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="B11" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
+      <x:c r="A12" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="B12" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
+      <x:c r="A13" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="B13" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
+      <x:c r="A14" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="B14" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
+      <x:c r="A15" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="B15" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C15" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D15" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E15" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="K15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="M15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q15" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R15" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
+      <x:c r="A16" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="B16" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
+      <x:c r="A17" t="s">
+        <x:v>38</x:v>
+      </x:c>
       <x:c r="B17" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="B18" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C18" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E18" t="n">
+        <x:v>1584.93</x:v>
+      </x:c>
+      <x:c r="F18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="G18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="H18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="I18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="J18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="K18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="L18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="M18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="N18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="O18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="P18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="Q18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="R18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S18" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
+      <x:c r="A19" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="B19" t="s">
-        <x:v>36</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
+      <x:c r="A20" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="B20" t="s">
-        <x:v>37</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
+      <x:c r="A21" t="s">
+        <x:v>47</x:v>
+      </x:c>
       <x:c r="B21" t="s">
-        <x:v>38</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
+      <x:c r="A22" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="B22" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B23" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B24" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
-      <x:c r="B23" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24">
-      <x:c r="B24" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
     <x:row r="25">
+      <x:c r="A25" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="B25" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
+      <x:c r="A26" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="B26" t="s">
-        <x:v>43</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
+      <x:c r="A27" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="B27" t="s">
-        <x:v>44</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
+      <x:c r="A28" t="s">
+        <x:v>59</x:v>
+      </x:c>
       <x:c r="B28" t="s">
-        <x:v>45</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
+      <x:c r="A29" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="B29" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
+      <x:c r="A30" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="B30" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C30" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D30" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E30" t="n">
-        <x:v>826.53</x:v>
-      </x:c>
-      <x:c r="F30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J30" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="K30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="M30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q30" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R30" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
+      <x:c r="A31" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="B31" t="s">
-        <x:v>50</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
+      <x:c r="A32" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="B32" t="s">
-        <x:v>51</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
+      <x:c r="A33" t="s">
+        <x:v>68</x:v>
+      </x:c>
       <x:c r="B33" t="s">
-        <x:v>52</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="B34" t="s">
-        <x:v>53</x:v>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C34" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D34" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E34" t="n">
+        <x:v>164.99</x:v>
+      </x:c>
+      <x:c r="F34" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="H34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="I34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="J34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="K34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="L34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="M34" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="N34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="O34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="P34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="Q34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="R34" t="n">
+        <x:v>989.94</x:v>
+      </x:c>
+      <x:c r="S34" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>71</x:v>
+      </x:c>
       <x:c r="B35" t="s">
-        <x:v>54</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="B36" t="s">
-        <x:v>55</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
+      <x:c r="A37" t="s">
+        <x:v>74</x:v>
+      </x:c>
       <x:c r="B37" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C37" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D37" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E37" t="n">
-        <x:v>192.8</x:v>
-      </x:c>
-      <x:c r="F37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="K37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="M37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R37" t="s">
-        <x:v>31</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
+      <x:c r="A38" t="s">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="B38" t="s">
-        <x:v>57</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
+      <x:c r="A39" t="s">
+        <x:v>78</x:v>
+      </x:c>
       <x:c r="B39" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C39" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D39" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E39" t="n">
-        <x:v>2161.02</x:v>
-      </x:c>
-      <x:c r="F39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="K39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="M39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R39" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
+      <x:c r="A40" t="s">
+        <x:v>80</x:v>
+      </x:c>
       <x:c r="B40" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
+      <x:c r="A41" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="B41" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C41" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D41" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E41" t="n">
-        <x:v>980.1</x:v>
-      </x:c>
-      <x:c r="F41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="K41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="M41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q41" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R41" t="s">
-        <x:v>31</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
+      <x:c r="A42" t="s">
+        <x:v>83</x:v>
+      </x:c>
       <x:c r="B42" t="s">
-        <x:v>62</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
+      <x:c r="A43" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="B43" t="s">
-        <x:v>63</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="44">
+      <x:c r="A44" t="s">
+        <x:v>86</x:v>
+      </x:c>
       <x:c r="B44" t="s">
-        <x:v>64</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
+      <x:c r="A45" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="B45" t="s">
-        <x:v>65</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
+      <x:c r="A46" t="s">
+        <x:v>90</x:v>
+      </x:c>
       <x:c r="B46" t="s">
-        <x:v>66</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="47">
+      <x:c r="A47" t="s">
+        <x:v>92</x:v>
+      </x:c>
       <x:c r="B47" t="s">
-        <x:v>67</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="48">
       <x:c r="B48" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49">
-      <x:c r="B49" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50">
-      <x:c r="B50" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51">
-      <x:c r="B51" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52">
-      <x:c r="B52" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53">
-      <x:c r="B53" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54">
-      <x:c r="B54" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C54" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E54" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55">
-      <x:c r="B55" t="s">
-        <x:v>77</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56">
-      <x:c r="B56" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C56" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D56" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E56" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="K56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="M56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R56" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57">
-      <x:c r="B57" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C57" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E57" t="s">
-        <x:v>80</x:v>
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D48" t="n">
+        <x:v>6.00</x:v>
+      </x:c>
+      <x:c r="R48" t="n">
+        <x:v>989.94</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="13">
-    <x:mergeCell ref="R9:R10"/>
-    <x:mergeCell ref="B6:R6"/>
-    <x:mergeCell ref="B7:R7"/>
+  <x:mergeCells count="14">
+    <x:mergeCell ref="S9:S10"/>
+    <x:mergeCell ref="B6:S6"/>
+    <x:mergeCell ref="B7:S7"/>
     <x:mergeCell ref="B2:F2"/>
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B4:F4"/>
@@ -1374,6 +1322,7 @@
     <x:mergeCell ref="D9:D10"/>
     <x:mergeCell ref="E9:E10"/>
     <x:mergeCell ref="F9:Q9"/>
+    <x:mergeCell ref="R9:R10"/>
   </x:mergeCells>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoCapitalPorArea.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <x:si>
     <x:t>ORGANISMOS DIRECCION EJECUTIVA</x:t>
   </x:si>
@@ -89,6 +89,9 @@
     <x:t>P/U</x:t>
   </x:si>
   <x:si>
+    <x:t>CODIGO</x:t>
+  </x:si>
+  <x:si>
     <x:t>Presup 7</x:t>
   </x:si>
   <x:si>
@@ -137,7 +140,10 @@
     <x:t>HARDWARE</x:t>
   </x:si>
   <x:si>
-    <x:t>0476024059 - BOCINA BRONCE SAE 62 5.1/2 X  7.1/2 X  5.1/2" X 16"</x:t>
+    <x:t>0476024059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOCINA BRONCE SAE 62 5.1/2 X  7.1/2 X  5.1/2" X 16"</x:t>
   </x:si>
   <x:si>
     <x:t>400716</x:t>
@@ -227,7 +233,10 @@
     <x:t>REPOSICIÓN MOBILIARIO</x:t>
   </x:si>
   <x:si>
-    <x:t>0503280508 - HOJA DE SIERRA DE  2"     X 24" X  6 DIENTES   </x:t>
+    <x:t>0503280508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOJA DE SIERRA DE  2"     X 24" X  6 DIENTES   </x:t>
   </x:si>
   <x:si>
     <x:t>1.2.1.3.3</x:t>
@@ -723,63 +732,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="B2:S10"/>
+  <x:dimension ref="B2:T10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E1" sqref="E1:E1048576"/>
+      <x:selection activeCell="C13" sqref="C13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="2" max="2" width="62.85546875" customWidth="1"/>
-    <x:col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <x:col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <x:col min="6" max="17" width="4.85546875" customWidth="1"/>
-    <x:col min="19" max="19" width="61.7109375" customWidth="1"/>
+    <x:col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <x:col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <x:col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <x:col min="7" max="18" width="4.85546875" customWidth="1"/>
+    <x:col min="20" max="20" width="61.7109375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <x:c r="B2" s="4" t="s">
+    <x:row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <x:c r="C2" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="4"/>
       <x:c r="D2" s="4"/>
       <x:c r="E2" s="4"/>
       <x:c r="F2" s="4"/>
-    </x:row>
-    <x:row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <x:c r="B3" s="4" t="s">
+      <x:c r="G2" s="4"/>
+    </x:row>
+    <x:row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <x:c r="C3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3 " t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C3" s="4"/>
+      <x:c r="C3 " t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="D3" s="4"/>
       <x:c r="E3" s="4"/>
       <x:c r="F3" s="4"/>
-    </x:row>
-    <x:row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <x:c r="B4" s="4" t="s">
+      <x:c r="G3" s="4"/>
+    </x:row>
+    <x:row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <x:c r="C4" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C4" s="4"/>
       <x:c r="D4" s="4"/>
       <x:c r="E4" s="4"/>
       <x:c r="F4" s="4"/>
-    </x:row>
-    <x:row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <x:c r="B5" s="5"/>
+      <x:c r="G4" s="4"/>
+    </x:row>
+    <x:row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <x:c r="C5" s="5"/>
       <x:c r="D5" s="5"/>
       <x:c r="E5" s="5"/>
       <x:c r="F5" s="5"/>
-    </x:row>
-    <x:row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <x:c r="B6" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C6" s="3"/>
+      <x:c r="G5" s="5"/>
+    </x:row>
+    <x:row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <x:c r="C6" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="D6" s="3"/>
       <x:c r="E6" s="3"/>
       <x:c r="F6" s="3"/>
@@ -796,12 +804,12 @@
       <x:c r="Q6" s="3"/>
       <x:c r="R6" s="3"/>
       <x:c r="S6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <x:c r="B7" s="3" t="s">
+      <x:c r="T6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <x:c r="C7" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C7" s="3"/>
       <x:c r="D7" s="3"/>
       <x:c r="E7" s="3"/>
       <x:c r="F7" s="3"/>
@@ -818,31 +826,34 @@
       <x:c r="Q7" s="3"/>
       <x:c r="R7" s="3"/>
       <x:c r="S7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <x:c r="B8" s="6"/>
+      <x:c r="T7" s="3"/>
+    </x:row>
+    <x:row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
-      <x:c r="E8" s="7"/>
+      <x:c r="E8" s="6"/>
       <x:c r="F8" s="7"/>
-    </x:row>
-    <x:row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <x:c r="G8" s="7"/>
+    </x:row>
+    <x:row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <x:c r="B9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
+      <x:c r="E9" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E9" s="2" t="s">
+      <x:c r="F9" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F9" s="2" t="s">
+      <x:c r="G9" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G9" s="2"/>
       <x:c r="H9" s="2"/>
       <x:c r="I9" s="2"/>
       <x:c r="J9" s="2"/>
@@ -853,129 +864,131 @@
       <x:c r="O9" s="2"/>
       <x:c r="P9" s="2"/>
       <x:c r="Q9" s="2"/>
-      <x:c r="R9" s="8" t="s">
+      <x:c r="R9" s="2"/>
+      <x:c r="S9" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="S9" s="2" t="s">
+      <x:c r="T9" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <x:row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <x:c r="B10" s="2"/>
       <x:c r="C10" s="2"/>
       <x:c r="D10" s="2"/>
       <x:c r="E10" s="2"/>
-      <x:c r="F10" s="1" t="s">
+      <x:c r="F10" s="2"/>
+      <x:c r="G10" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G10" s="1" t="s">
+      <x:c r="H10" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="H10" s="1" t="s">
+      <x:c r="I10" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="I10" s="1" t="s">
+      <x:c r="J10" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="J10" s="1" t="s">
+      <x:c r="K10" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="K10" s="1" t="s">
+      <x:c r="L10" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="L10" s="1" t="s">
+      <x:c r="M10" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="M10" s="1" t="s">
+      <x:c r="N10" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="N10" s="1" t="s">
+      <x:c r="O10" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="O10" s="1" t="s">
+      <x:c r="P10" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="P10" s="1" t="s">
+      <x:c r="Q10" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="Q10" s="1" t="s">
+      <x:c r="R10" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="R10" s="9"/>
-      <x:c r="S10" s="2"/>
+      <x:c r="S10" s="9"/>
+      <x:c r="T10" s="2"/>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B11" t="s">
         <x:v>27</x:v>
+      </x:c>
+      <x:c r="C11" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
         <x:v>29</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B13" t="s">
         <x:v>31</x:v>
+      </x:c>
+      <x:c r="C13" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B14" t="s">
         <x:v>33</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B15" t="s">
         <x:v>35</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B16" t="s">
         <x:v>37</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B17" t="s">
         <x:v>39</x:v>
+      </x:c>
+      <x:c r="C17" t="s">
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="B18" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D18" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E18" t="n">
+      <x:c r="F18" t="n">
         <x:v>1584.93</x:v>
       </x:c>
-      <x:c r="F18" t="n">
-        <x:v/>
-      </x:c>
       <x:c r="G18" t="n">
         <x:v/>
       </x:c>
@@ -1010,151 +1023,154 @@
         <x:v/>
       </x:c>
       <x:c r="R18" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="S18" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="S18" t="s">
-        <x:v>42</x:v>
+      <x:c r="T18" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C19" t="s">
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B20" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C20" t="s">
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B21" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C21" t="s">
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B22" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C22" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B23" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C23" t="s">
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B24" t="s">
-        <x:v>39</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C24" t="s">
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B25" t="s">
-        <x:v>44</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C25" t="s">
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B26" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C26" t="s">
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B27" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C27" t="s">
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B28" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C28" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B29" t="s">
-        <x:v>50</x:v>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C29" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B30" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C30" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B31" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B32" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C32" t="s">
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B33" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C33" t="s">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="B34" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C34" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D34" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D34" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E34" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E34" t="n">
+      <x:c r="F34" t="n">
         <x:v>164.99</x:v>
       </x:c>
-      <x:c r="F34" t="n">
+      <x:c r="G34" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G34" t="n">
-        <x:v/>
-      </x:c>
       <x:c r="H34" t="n">
         <x:v/>
       </x:c>
@@ -1171,11 +1187,11 @@
         <x:v/>
       </x:c>
       <x:c r="M34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="N34" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="N34" t="n">
-        <x:v/>
-      </x:c>
       <x:c r="O34" t="n">
         <x:v/>
       </x:c>
@@ -1186,143 +1202,147 @@
         <x:v/>
       </x:c>
       <x:c r="R34" t="n">
+        <x:v/>
+      </x:c>
+      <x:c r="S34" t="n">
         <x:v>989.94</x:v>
       </x:c>
-      <x:c r="S34" t="s">
-        <x:v>42</x:v>
+      <x:c r="T34" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B35" t="s">
-        <x:v>50</x:v>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C35" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B36" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C36" t="s">
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B37" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C37" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B38" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C38" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="A39" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B39" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C39" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="A40" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B40" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C40" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B41" t="s">
-        <x:v>73</x:v>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C41" t="s">
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B42" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C42" t="s">
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B43" t="s">
-        <x:v>50</x:v>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C43" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B44" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C44" t="s">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B45" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C45" t="s">
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
       <x:c r="A46" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B46" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C46" t="s">
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="47">
       <x:c r="A47" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B47" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C47" t="s">
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="48">
-      <x:c r="B48" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D48" t="n">
+      <x:c r="C48" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E48" t="n">
         <x:v>6.00</x:v>
       </x:c>
-      <x:c r="R48" t="n">
+      <x:c r="S48" t="n">
         <x:v>989.94</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="14">
-    <x:mergeCell ref="S9:S10"/>
-    <x:mergeCell ref="B6:S6"/>
-    <x:mergeCell ref="B7:S7"/>
-    <x:mergeCell ref="B2:F2"/>
-    <x:mergeCell ref="B3:F3"/>
-    <x:mergeCell ref="B4:F4"/>
-    <x:mergeCell ref="B5:F5"/>
-    <x:mergeCell ref="B8:F8"/>
+  <x:mergeCells count="15">
     <x:mergeCell ref="B9:B10"/>
+    <x:mergeCell ref="T9:T10"/>
+    <x:mergeCell ref="C6:T6"/>
+    <x:mergeCell ref="C7:T7"/>
+    <x:mergeCell ref="C2:G2"/>
+    <x:mergeCell ref="C3:G3"/>
+    <x:mergeCell ref="C4:G4"/>
+    <x:mergeCell ref="C5:G5"/>
+    <x:mergeCell ref="C8:G8"/>
     <x:mergeCell ref="C9:C10"/>
     <x:mergeCell ref="D9:D10"/>
     <x:mergeCell ref="E9:E10"/>
-    <x:mergeCell ref="F9:Q9"/>
-    <x:mergeCell ref="R9:R10"/>
+    <x:mergeCell ref="F9:F10"/>
+    <x:mergeCell ref="G9:R9"/>
+    <x:mergeCell ref="S9:S10"/>
   </x:mergeCells>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
